--- a/website_content_creation/authors/Eric_Maquignaz/EmilsenLab_AuthorForm.xlsx
+++ b/website_content_creation/authors/Eric_Maquignaz/EmilsenLab_AuthorForm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Eric_Maquignaz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\OneDrive - NRCan RNCan\Documents\WET lab\GLFC-WET.github.io\website_content_creation\authors\Eric_Maquignaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="14_{4AA7E540-252E-417C-AC05-0559222007F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE798A07-0174-41CE-A458-DA772C598F5C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA530905-9463-4948-A910-82E346FB5D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20790" yWindow="-13605" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9315" yWindow="-13875" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>github.com/ARUListening</t>
   </si>
   <si>
-    <t>Dr. Dalal Hanna</t>
-  </si>
-  <si>
     <t>B.Sc. Psychology, Minor in Computer Science</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Visiting and Co-supervised Students</t>
+  </si>
+  <si>
+    <t>Dr. Dalal Hanna &amp; Erik Emilson</t>
   </si>
 </sst>
 </file>
@@ -832,7 +832,7 @@
   <dimension ref="A1:C1005"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -942,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="C20" s="12">
         <v>2018</v>
@@ -1004,10 +1004,10 @@
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="C21" s="13">
         <v>2025</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1083,27 +1083,27 @@
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/website_content_creation/authors/Eric_Maquignaz/EmilsenLab_AuthorForm.xlsx
+++ b/website_content_creation/authors/Eric_Maquignaz/EmilsenLab_AuthorForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\OneDrive - NRCan RNCan\Documents\WET lab\GLFC-WET.github.io\website_content_creation\authors\Eric_Maquignaz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Eric_Maquignaz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA530905-9463-4948-A910-82E346FB5D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AA530905-9463-4948-A910-82E346FB5D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A284754-E4EE-44CC-B418-793F4D352773}"/>
   <bookViews>
-    <workbookView xWindow="-9315" yWindow="-13875" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="1716" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,15 +123,9 @@
     <t>PhD Student, Carleton University</t>
   </si>
   <si>
-    <t>ringbeakedseagull</t>
-  </si>
-  <si>
     <t>ericmaquignaz@cmail.carleton.ca</t>
   </si>
   <si>
-    <t>github.com/ARUListening</t>
-  </si>
-  <si>
     <t>B.Sc. Psychology, Minor in Computer Science</t>
   </si>
   <si>
@@ -172,13 +166,19 @@
   </si>
   <si>
     <t>Dr. Dalal Hanna &amp; Erik Emilson</t>
+  </si>
+  <si>
+    <t>www.github.com/ARUListening</t>
+  </si>
+  <si>
+    <t>www.instagram.com/ringbeakedseagull</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,12 +203,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -558,14 +552,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -586,9 +579,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
@@ -607,12 +600,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -831,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -865,7 +858,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C4" t="s">
@@ -873,33 +866,33 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>32</v>
+      <c r="B6" s="29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>33</v>
+      <c r="B7" s="29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>34</v>
+      <c r="B8" s="29" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -909,13 +902,13 @@
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3"/>
@@ -924,7 +917,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="3"/>
@@ -933,23 +926,23 @@
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="5"/>
@@ -958,11 +951,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -974,136 +967,136 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="12">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>2025</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="38"/>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>40</v>
+      <c r="A28" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="22"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="22"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="21"/>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+    <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+    <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2077,6 +2070,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{7182BDEA-767D-490F-9A69-11943C3732D5}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{D0877AAC-D41B-4241-AF80-60D71D3865E5}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{7E2B8ED6-6B0A-4B13-9B65-DC4A3E175827}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/website_content_creation/authors/Eric_Maquignaz/EmilsenLab_AuthorForm.xlsx
+++ b/website_content_creation/authors/Eric_Maquignaz/EmilsenLab_AuthorForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Eric_Maquignaz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AA530905-9463-4948-A910-82E346FB5D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A284754-E4EE-44CC-B418-793F4D352773}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{AA530905-9463-4948-A910-82E346FB5D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C23ADD1-2425-48AE-9355-0F315DD40542}"/>
   <bookViews>
     <workbookView xWindow="1416" yWindow="1716" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,10 +168,10 @@
     <t>Dr. Dalal Hanna &amp; Erik Emilson</t>
   </si>
   <si>
-    <t>www.github.com/ARUListening</t>
-  </si>
-  <si>
-    <t>www.instagram.com/ringbeakedseagull</t>
+    <t>https://www.instagram.com/ringbeakedseagull</t>
+  </si>
+  <si>
+    <t>https://www.github.com/ARUListening</t>
   </si>
 </sst>
 </file>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -876,7 +876,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
